--- a/Resources/TestData.xlsx
+++ b/Resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\telstra\android\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEBCDB0-07B6-4458-B2A9-848AAA5D9F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90070388-6A6D-48D9-AFDE-4EF9DB3C7F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>Sanyo</t>
-  </si>
-  <si>
-    <t>chethanbox@gmail.com</t>
-  </si>
-  <si>
-    <t>Y2hldCMyMA==</t>
   </si>
 </sst>
 </file>
@@ -380,7 +374,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,17 +387,12 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -422,9 +411,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{F98A279B-F9F1-4BD9-B7DE-8A955284D8F5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>